--- a/medicine/Psychotrope/Würzburger_Hofbräu/Würzburger_Hofbräu.xlsx
+++ b/medicine/Psychotrope/Würzburger_Hofbräu/Würzburger_Hofbräu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>W%C3%BCrzburger_Hofbr%C3%A4u</t>
+          <t>Würzburger_Hofbräu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Würzburger Hofbräu est une brasserie allemande fondée en 1643.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>W%C3%BCrzburger_Hofbr%C3%A4u</t>
+          <t>Würzburger_Hofbräu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie est fondée en 1643 par le prince-évêque Jean-Philippe de Schönborn dans la région de Basse-Franconie en Allemagne.
 À cette époque, il y avait beaucoup de soldats suédois à Wurtzbourg, qui se servaient dans les réserves de vin. Pour les satisfaire, on[Qui ?] avait besoin d'une autre boisson alcoolisée comme la bière. Comme la brasserie était une bonne source de revenu, elle sera maintenue par la suite.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>W%C3%BCrzburger_Hofbr%C3%A4u</t>
+          <t>Würzburger_Hofbräu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La brasserie possède deux sites de production et vend 360 000 hectolitres de bière par an en moyenne sous plusieurs marques comme Würzburger Hofbräu, Werner Brau ou Lohrer Bier[1].
-Les marques Würzburger Hofbräu et Keiler Bier sont exploitées par le géant Heineken[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La brasserie possède deux sites de production et vend 360 000 hectolitres de bière par an en moyenne sous plusieurs marques comme Würzburger Hofbräu, Werner Brau ou Lohrer Bier.
+Les marques Würzburger Hofbräu et Keiler Bier sont exploitées par le géant Heineken.
 Würzburger Hofbräu Pilsner (4,9 % d'alcool ; densité primitive de moût 11,5 % )
 Würzburger Hofbräu Export (5,2 % d'alcool ; densité primitive de moût 12,2 %)
 Würzburger Hofbräu Leicht (2,9 % d'alcool ; densité primitive de moût 7,2 %)
@@ -558,9 +574,43 @@
 Würzburger Hofbräu Schwarzbier (4,9 % d'alcool ; densité primitive de moût 11,4 %)
 Julius Echter Hefeweißbier (5,3 % d'alcool ; densité primitive de moût 12,5 %)
 Sommerfrisch Radler (2,5 % d'alcool ; densité primitive de moût 6,3 %)
-Kiliani Festbier (5,8 % d'alcool ; densité primitive de moût 13,3 %)
-Keiler Bier
-Keiler Weißbier hell (5,2 % d'alcool ; densité primitive de moût 12,3 %)
+Kiliani Festbier (5,8 % d'alcool ; densité primitive de moût 13,3 %)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Würzburger_Hofbräu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/W%C3%BCrzburger_Hofbr%C3%A4u</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Keiler Bier</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Keiler Weißbier hell (5,2 % d'alcool ; densité primitive de moût 12,3 %)
 Keiler Weißbier dunkel (5,2 % d'alcool ; densité primitive de moût 12,3 %)
 Keiler Landpils (4,9 % d'alcool ; densité primitive de moût 11,5 %)
 Keiler Pils (4,9 % d'alcool ; densité primitive de moût 11,4 %)
